--- a/docs/deliverable3/Getana_Deliverable_3_SprintBacklog_5.xlsx
+++ b/docs/deliverable3/Getana_Deliverable_3_SprintBacklog_5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="178">
   <si>
     <t>SPRINT BACKLOG — Deliverable 1</t>
   </si>
@@ -397,14 +397,179 @@
     <t>SPRINT #5 BACKLOG</t>
   </si>
   <si>
-    <t>103 Update Product Backlog</t>
+    <t>193, TOC and PDF-ize Test Plan document</t>
+  </si>
+  <si>
+    <t>121, Complete test plan document</t>
+  </si>
+  <si>
+    <t>221, Create misuse case diagram for story 34</t>
+  </si>
+  <si>
+    <t>191, Complete use case testing</t>
+  </si>
+  <si>
+    <t>217, Implement TA's 11th-hour Suggestions</t>
+  </si>
+  <si>
+    <t>220, PDFize SRS (again)</t>
+  </si>
+  <si>
+    <t>222, Complete requirements in SRS for story 34</t>
+  </si>
+  <si>
+    <t>219, Add use case for story 34 to SRS</t>
+  </si>
+  <si>
+    <t>218, Add misuse case diagram to SRS</t>
+  </si>
+  <si>
+    <t>216, Add story 34 to product backlog</t>
+  </si>
+  <si>
+    <t>157, Regenerate TOC and PDF-ize SRS document</t>
+  </si>
+  <si>
+    <t>154, Replace old mockups in SRS</t>
+  </si>
+  <si>
+    <t>189, Create APK release for deliverable 3</t>
+  </si>
+  <si>
+    <t>143, Update SRS and UC document for User Story 8</t>
+  </si>
+  <si>
+    <t>151, Create Sprint 5 Sprint Backlog</t>
+  </si>
+  <si>
+    <t>183, Transcribe audio to script</t>
+  </si>
+  <si>
+    <t>145, Update SRS and UC document for User Story 21</t>
+  </si>
+  <si>
+    <t>117, Update GRL and UCM document</t>
+  </si>
+  <si>
+    <t>116, Update SRS and UC document</t>
+  </si>
+  <si>
+    <t>142, update grl and ucm model document for user story #8</t>
+  </si>
+  <si>
+    <t>99, implement user story 8</t>
+  </si>
+  <si>
+    <t>146, Update SRS and UC document for User Story 5</t>
+  </si>
+  <si>
+    <t>176, Update Product backlog for start of Sprint 5</t>
+  </si>
+  <si>
+    <t>174, Reword privacy notification text</t>
+  </si>
+  <si>
+    <t>139, update grl and ucm model document for user story #5</t>
+  </si>
+  <si>
+    <t>172, Regenerate scenarios after UCM completed</t>
+  </si>
+  <si>
+    <t>153, Regenerate TOC and PDF-ize SCMP</t>
+  </si>
+  <si>
+    <t>184, Combine script, blank consent, signed consent, results, notes, &amp; conclusions into Usability document</t>
+  </si>
+  <si>
+    <t>182, Ensure submittable URN.jucm is latest iteration</t>
+  </si>
+  <si>
+    <t>180, Generate TOC and PDF-ize URN document</t>
+  </si>
+  <si>
+    <t>115, Update domain model &amp; detailed design document</t>
+  </si>
+  <si>
+    <t>120, Create and PDFize software architecture and design pattern document</t>
+  </si>
+  <si>
+    <t>192, Complete acceptance testing</t>
+  </si>
+  <si>
+    <t>190, Complete unit testing</t>
+  </si>
+  <si>
+    <t>122, Complete usability study document</t>
+  </si>
+  <si>
+    <t>208, Fill in UCM blanks on URN document</t>
+  </si>
+  <si>
+    <t>207, Fill in GRL blanks on URN document</t>
+  </si>
+  <si>
+    <t>186, Create usability study forms</t>
+  </si>
+  <si>
+    <t>159, Fill in the blanks on URN document</t>
+  </si>
+  <si>
+    <t>185, Perform usability study</t>
+  </si>
+  <si>
+    <t>110, Finalize product backlog</t>
+  </si>
+  <si>
+    <t>102, finalize scrum report</t>
+  </si>
+  <si>
+    <t>214, sprint backlog</t>
+  </si>
+  <si>
+    <t>136, team member report</t>
+  </si>
+  <si>
+    <t>Yong 100%</t>
+  </si>
+  <si>
+    <t>118, complete sprint 5 review</t>
+  </si>
+  <si>
+    <t>Brody 100%</t>
+  </si>
+  <si>
+    <t>Michael, Sakshyam, Vasilis, Brody</t>
+  </si>
+  <si>
+    <t>Vasilis,Yong 100%</t>
+  </si>
+  <si>
+    <t>Yong, Brody 100%</t>
+  </si>
+  <si>
+    <t>Vasilis 100%</t>
+  </si>
+  <si>
+    <t>Vasilis, Brody 100%</t>
+  </si>
+  <si>
+    <t>Brody, Michael 100%</t>
+  </si>
+  <si>
+    <t>Sakshyam 100%</t>
+  </si>
+  <si>
+    <t>Michael, Sakshyam, Vasilis, Brody, Yong 100%</t>
+  </si>
+  <si>
+    <t>Brody, Vasilis 100%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -447,6 +612,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -468,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -482,6 +652,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1854,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="B6" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2202,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -2845,20 +3016,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK10"/>
+  <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="108.28515625" style="5"/>
-    <col min="2" max="3" width="11" style="5"/>
-    <col min="4" max="4" width="14.140625" style="5"/>
-    <col min="5" max="5" width="11" style="5"/>
-    <col min="6" max="6" width="25" style="5"/>
-    <col min="7" max="7" width="57.5703125" style="5"/>
+    <col min="1" max="1" width="91.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="107.42578125" style="5" customWidth="1"/>
     <col min="8" max="1025" width="11" style="5"/>
   </cols>
   <sheetData>
@@ -2911,7 +3083,9 @@
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
-      <c r="G5"/>
+      <c r="G5" s="9" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -2959,6 +3133,1000 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>122</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5">
+        <v>4</v>
+      </c>
+      <c r="F29" s="5">
+        <v>4</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="5">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="5">
+        <v>3</v>
+      </c>
+      <c r="F38" s="5">
+        <v>3</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="5">
+        <v>4</v>
+      </c>
+      <c r="F42" s="5">
+        <v>4</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="5">
+        <v>3</v>
+      </c>
+      <c r="F44" s="5">
+        <v>3</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="5">
+        <v>5</v>
+      </c>
+      <c r="F45" s="5">
+        <v>5</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="5">
+        <v>3</v>
+      </c>
+      <c r="F46" s="5">
+        <v>3</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="5">
+        <v>3</v>
+      </c>
+      <c r="F47" s="5">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2</v>
+      </c>
+      <c r="F48" s="5">
+        <v>2</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="5">
+        <v>3</v>
+      </c>
+      <c r="F49" s="5">
+        <v>3</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="F50" s="5">
+        <v>3</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2</v>
+      </c>
+      <c r="F52" s="5">
+        <v>2</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/docs/deliverable3/Getana_Deliverable_3_SprintBacklog_5.xlsx
+++ b/docs/deliverable3/Getana_Deliverable_3_SprintBacklog_5.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="176">
   <si>
     <t>SPRINT BACKLOG — Deliverable 1</t>
   </si>
@@ -439,12 +439,6 @@
     <t>143, Update SRS and UC document for User Story 8</t>
   </si>
   <si>
-    <t>151, Create Sprint 5 Sprint Backlog</t>
-  </si>
-  <si>
-    <t>183, Transcribe audio to script</t>
-  </si>
-  <si>
     <t>145, Update SRS and UC document for User Story 21</t>
   </si>
   <si>
@@ -538,9 +532,6 @@
     <t>Brody 100%</t>
   </si>
   <si>
-    <t>Michael, Sakshyam, Vasilis, Brody</t>
-  </si>
-  <si>
     <t>Vasilis,Yong 100%</t>
   </si>
   <si>
@@ -563,6 +554,9 @@
   </si>
   <si>
     <t>Brody, Vasilis 100%</t>
+  </si>
+  <si>
+    <t>Vasilis, Sakshyam 100%</t>
   </si>
 </sst>
 </file>
@@ -2025,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D25" sqref="A16:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3016,17 +3010,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK54"/>
+  <dimension ref="A1:AMK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="91.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="14" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="5" customWidth="1"/>
@@ -3083,9 +3077,7 @@
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
-      <c r="G5" s="9" t="s">
-        <v>169</v>
-      </c>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -3150,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -3173,18 +3165,18 @@
         <v>4</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
+      <c r="B12" s="5">
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>15</v>
@@ -3196,7 +3188,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3219,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3242,7 +3234,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3265,18 +3257,18 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>14</v>
+      <c r="B16" s="5">
+        <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>15</v>
@@ -3288,18 +3280,18 @@
         <v>2</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>14</v>
+      <c r="B17" s="5">
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>15</v>
@@ -3311,7 +3303,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3334,12 +3326,12 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>14</v>
@@ -3357,18 +3349,18 @@
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>14</v>
+      <c r="B20" s="5">
+        <v>34</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>15</v>
@@ -3380,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3403,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -3426,7 +3418,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -3449,18 +3441,18 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>14</v>
+      <c r="B24" s="5">
+        <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>15</v>
@@ -3472,30 +3464,30 @@
         <v>2</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>14</v>
+      <c r="B25" s="5">
+        <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3512,13 +3504,13 @@
         <v>15</v>
       </c>
       <c r="E26" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="5">
-        <v>3</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>172</v>
+        <v>1</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -3535,24 +3527,24 @@
         <v>15</v>
       </c>
       <c r="E27" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>14</v>
+      <c r="B28" s="5">
+        <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>15</v>
@@ -3563,51 +3555,51 @@
       <c r="F28" s="5">
         <v>1</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>176</v>
+      <c r="G28" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>14</v>
+      <c r="B29" s="5">
+        <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>14</v>
+      <c r="B30" s="5">
+        <v>5</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>166</v>
@@ -3617,11 +3609,11 @@
       <c r="A31" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="5">
-        <v>8</v>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>15</v>
@@ -3650,36 +3642,36 @@
         <v>15</v>
       </c>
       <c r="E32" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>14</v>
+      <c r="B33" s="5">
+        <v>5</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -3702,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -3719,13 +3711,13 @@
         <v>15</v>
       </c>
       <c r="E35" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -3742,13 +3734,13 @@
         <v>15</v>
       </c>
       <c r="E36" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3771,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -3788,13 +3780,13 @@
         <v>15</v>
       </c>
       <c r="E38" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3816,8 +3808,8 @@
       <c r="F39" s="5">
         <v>1</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>172</v>
+      <c r="G39" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -3834,13 +3826,13 @@
         <v>15</v>
       </c>
       <c r="E40" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F40" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -3862,8 +3854,8 @@
       <c r="F41" s="5">
         <v>1</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>176</v>
+      <c r="G41" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -3880,13 +3872,13 @@
         <v>15</v>
       </c>
       <c r="E42" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -3903,13 +3895,13 @@
         <v>15</v>
       </c>
       <c r="E43" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F43" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -3932,7 +3924,7 @@
         <v>3</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -3949,13 +3941,13 @@
         <v>15</v>
       </c>
       <c r="E45" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F45" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -3972,13 +3964,13 @@
         <v>15</v>
       </c>
       <c r="E46" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -4001,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -4018,18 +4010,18 @@
         <v>15</v>
       </c>
       <c r="E48" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="5">
-        <v>2</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>177</v>
+        <v>3</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>14</v>
@@ -4041,18 +4033,18 @@
         <v>15</v>
       </c>
       <c r="E49" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>14</v>
@@ -4064,19 +4056,28 @@
         <v>15</v>
       </c>
       <c r="E50" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" s="5">
-        <v>3</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>176</v>
+        <v>2</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>163</v>
       </c>
+      <c r="B51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E51" s="5">
         <v>1</v>
       </c>
@@ -4084,49 +4085,30 @@
         <v>1</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E52" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" s="5">
-        <v>1</v>
-      </c>
-      <c r="F53" s="5">
-        <v>1</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E54" s="5">
-        <v>1</v>
-      </c>
-      <c r="F54" s="5">
-        <v>1</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
